--- a/DateAndJSONDemo/src/main/resources/aaaa.xlsx
+++ b/DateAndJSONDemo/src/main/resources/aaaa.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="274">
   <si>
     <t>序号</t>
   </si>
@@ -843,9 +843,6 @@
   </si>
   <si>
     <t>重庆中煜华资工程技术有限公司</t>
-  </si>
-  <si>
-    <t>20213年10月26日</t>
   </si>
 </sst>
 </file>
@@ -2229,8 +2226,8 @@
   <sheetPr/>
   <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -4411,8 +4408,8 @@
       <c r="C128" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>274</v>
+      <c r="D128" s="8">
+        <v>45225</v>
       </c>
       <c r="E128" s="8">
         <v>45621</v>
